--- a/data/trans_dic/P37A$vacunaempresa-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunaempresa-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.0005999998014747882</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.004322734078664094</v>
+        <v>0.004322734078664093</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001914333983633063</v>
+        <v>0.0022022685105572</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -720,15 +720,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0006821523945218539</v>
+        <v>0.000680113162300329</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.001455616271391383</v>
+        <v>0.001559825678684394</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001975865913137519</v>
+        <v>0.001642158525822677</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001820074141275339</v>
+        <v>0.001801039965816948</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0121557083979604</v>
+        <v>0.01232205700024455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006770110930733065</v>
+        <v>0.006343439505252709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006888449040584103</v>
+        <v>0.007018037896203857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01405743386781601</v>
+        <v>0.01495175817202511</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.00630892190497347</v>
+        <v>0.005811858553675222</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.01106342711079437</v>
+        <v>0.009990914932390025</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.006733218643949737</v>
+        <v>0.006545057830642235</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.002450594140804147</v>
+        <v>0.00284395909270286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.002779707871272241</v>
+        <v>0.003023307451255695</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.009728530925933072</v>
+        <v>0.008844479735703957</v>
       </c>
     </row>
     <row r="7">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005165347440935199</v>
+        <v>0.00533823394077896</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008887474464958012</v>
+        <v>0.009108963551025454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001936335467177965</v>
+        <v>0.001815871871379803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01808189613895768</v>
+        <v>0.01793185474748107</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002040357807217578</v>
+        <v>0.002517769779272077</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006357556871763922</v>
+        <v>0.006460042945813272</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00238626949274632</v>
+        <v>0.002047454576009714</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0244069694354567</v>
+        <v>0.02411515144866776</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004439923331843389</v>
+        <v>0.00468254088733175</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008499562360898005</v>
+        <v>0.008708956290460637</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002750979599423364</v>
+        <v>0.002698905632699481</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02294630811447178</v>
+        <v>0.02262644418387962</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01488173790161333</v>
+        <v>0.01565476504141589</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02108283592869444</v>
+        <v>0.02013571037856221</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.008358279295387674</v>
+        <v>0.007998710359401917</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03273995434448061</v>
+        <v>0.03339882477250523</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.009922295857968699</v>
+        <v>0.009878292521565002</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01668358096721505</v>
+        <v>0.01712843649891593</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.009236011810359922</v>
+        <v>0.008671061438003858</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03730326730469252</v>
+        <v>0.0376416781454751</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01063325273021117</v>
+        <v>0.01097864593587405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01633699057771244</v>
+        <v>0.01604764657207715</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.006908955051781574</v>
+        <v>0.007124583176266769</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03267465121387639</v>
+        <v>0.03224294112721227</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.008815900767775827</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05337644381946434</v>
+        <v>0.05337644381946433</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0145186734413119</v>
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01364798754718767</v>
+        <v>0.01359395691414987</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02076218081564123</v>
+        <v>0.02006254938840131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002169073942665258</v>
+        <v>0.001952743427970144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03726619473664136</v>
+        <v>0.03778371601435176</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006170371323507395</v>
+        <v>0.006192267702639231</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01318647212008129</v>
+        <v>0.01356140797478832</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007494377482928198</v>
+        <v>0.008349079747172618</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04972693785345171</v>
+        <v>0.0492744157649029</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01235186280982056</v>
+        <v>0.01302567743932051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02051837935908938</v>
+        <v>0.02177070051603468</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.006769386981085465</v>
+        <v>0.007582424166536338</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04690553727086825</v>
+        <v>0.048107680576703</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0397662989032737</v>
+        <v>0.03920852414255332</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05712878210453662</v>
+        <v>0.05771043453542513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02239293485832267</v>
+        <v>0.0224053840962109</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07107081303211171</v>
+        <v>0.07365416581042375</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02900706985584739</v>
+        <v>0.02710854474994721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04926567698057556</v>
+        <v>0.0488376993246988</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03289331124730076</v>
+        <v>0.0318054114037346</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08587267709990985</v>
+        <v>0.08447138252206586</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02857277716399386</v>
+        <v>0.03026488907226946</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04672232118112672</v>
+        <v>0.04818328817219714</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02213504341631802</v>
+        <v>0.02167804525822817</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07113828780960951</v>
+        <v>0.07281283707954979</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007594317616826439</v>
+        <v>0.007463619510055118</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009841285424651954</v>
+        <v>0.009967610689915772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002308325387645948</v>
+        <v>0.002462321380275011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02195373281855644</v>
+        <v>0.0213320371048914</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00317369465969739</v>
+        <v>0.003014961153749746</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.005928951571252037</v>
+        <v>0.00571421354013673</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003260264274506627</v>
+        <v>0.002996168008971943</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02680611565473025</v>
+        <v>0.02651877165836131</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005887068611229953</v>
+        <v>0.005955740122549959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008535355801582916</v>
+        <v>0.008737525806042291</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003236135512948874</v>
+        <v>0.00324627396218072</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02581173120567081</v>
+        <v>0.02551605562655919</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01511486307762316</v>
+        <v>0.01453702678998169</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01865359521464704</v>
+        <v>0.01870662334657473</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007501384798221373</v>
+        <v>0.007419312850352903</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03358204285894451</v>
+        <v>0.03293082673451161</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.008026624939411697</v>
+        <v>0.008021465553214775</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01279214963824767</v>
+        <v>0.01244100089800849</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.008583567592674955</v>
+        <v>0.008588033352129097</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0368348792417752</v>
+        <v>0.03709999685655394</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01047421677160122</v>
+        <v>0.01026938833028391</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01397756539403258</v>
+        <v>0.01399506157634736</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.006997803592945732</v>
+        <v>0.00700608282190297</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03352121923454852</v>
+        <v>0.03346574162953969</v>
       </c>
     </row>
     <row r="16">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1975</v>
+        <v>2272</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1467,15 +1467,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1197</v>
+        <v>1282</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4637</v>
+        <v>3854</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2549</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="7">
@@ -1495,36 +1495,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12541</v>
+        <v>12713</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6598</v>
+        <v>6183</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5196</v>
+        <v>5294</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8133</v>
+        <v>8650</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8297</v>
+        <v>7643</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>9095</v>
+        <v>8213</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15802</v>
+        <v>15360</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5667</v>
+        <v>6576</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>4862</v>
+        <v>5288</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13625</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="8">
@@ -1627,40 +1627,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8747</v>
+        <v>9040</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17455</v>
+        <v>17890</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4021</v>
+        <v>3770</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40333</v>
+        <v>39998</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3239</v>
+        <v>3997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11175</v>
+        <v>11355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4745</v>
+        <v>4071</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>52997</v>
+        <v>52363</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14568</v>
+        <v>15364</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>31633</v>
+        <v>32413</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11182</v>
+        <v>10970</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>101009</v>
+        <v>99601</v>
       </c>
     </row>
     <row r="11">
@@ -1671,40 +1671,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25201</v>
+        <v>26510</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>41406</v>
+        <v>39546</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17355</v>
+        <v>16608</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>73029</v>
+        <v>74498</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15753</v>
+        <v>15683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>29326</v>
+        <v>30108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18364</v>
+        <v>17241</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>81000</v>
+        <v>81735</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34889</v>
+        <v>36022</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>60802</v>
+        <v>59725</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28083</v>
+        <v>28959</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>143832</v>
+        <v>141932</v>
       </c>
     </row>
     <row r="12">
@@ -1807,40 +1807,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7526</v>
+        <v>7496</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9990</v>
+        <v>9654</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1186</v>
+        <v>1068</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26518</v>
+        <v>26886</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2940</v>
+        <v>2950</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6048</v>
+        <v>6220</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4115</v>
+        <v>4585</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36543</v>
+        <v>36211</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12695</v>
+        <v>13388</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19283</v>
+        <v>20460</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7419</v>
+        <v>8311</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>67847</v>
+        <v>69586</v>
       </c>
     </row>
     <row r="15">
@@ -1851,40 +1851,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21927</v>
+        <v>21620</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27489</v>
+        <v>27769</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12246</v>
+        <v>12253</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50573</v>
+        <v>52411</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13819</v>
+        <v>12915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22595</v>
+        <v>22398</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18063</v>
+        <v>17466</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>63106</v>
+        <v>62076</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29368</v>
+        <v>31107</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43910</v>
+        <v>45283</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>24261</v>
+        <v>23760</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>102899</v>
+        <v>105321</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24883</v>
+        <v>24455</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>33655</v>
+        <v>34087</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7797</v>
+        <v>8317</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77292</v>
+        <v>75103</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10725</v>
+        <v>10188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21073</v>
+        <v>20310</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11516</v>
+        <v>10583</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>99941</v>
+        <v>98870</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>39183</v>
+        <v>39640</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>59526</v>
+        <v>60936</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>22361</v>
+        <v>22431</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>187109</v>
+        <v>184966</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49524</v>
+        <v>47631</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>63791</v>
+        <v>63973</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25337</v>
+        <v>25060</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>118232</v>
+        <v>115939</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27124</v>
+        <v>27106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>45466</v>
+        <v>44218</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30318</v>
+        <v>30334</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>137332</v>
+        <v>138320</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>69714</v>
+        <v>68350</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>97480</v>
+        <v>97602</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48353</v>
+        <v>48410</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>242995</v>
+        <v>242593</v>
       </c>
     </row>
     <row r="20">
